--- a/tests/expected_results/result_test_write_results_peerberry_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_peerberry_missing_month.xlsx
@@ -1,67 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily results" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total results" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Daily results" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly results" sheetId="2" r:id="rId2"/>
+    <sheet name="Total results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Redemption payments</t>
+  </si>
+  <si>
+    <t>Interest payments</t>
+  </si>
+  <si>
+    <t>Total income</t>
+  </si>
+  <si>
+    <t>PeerBerry</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="DD/MM/YYYY" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,81 +110,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -432,1950 +427,1651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="11.57"/>
-    <col customWidth="1" max="2" min="2" style="4" width="9.130000000000001"/>
-    <col customWidth="1" max="3" min="3" style="4" width="23.57"/>
-    <col customWidth="1" max="4" min="4" style="5" width="16.29"/>
-    <col customWidth="1" max="5" min="5" style="5" width="21.14"/>
-    <col customWidth="1" max="6" min="6" style="5" width="16.29"/>
-    <col customWidth="1" max="7" min="7" style="5" width="18.71"/>
-    <col customWidth="1" max="1025" min="8" style="4" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Plattform</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>Währung</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Investitionen</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>Tilgungszahlungen</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Zinszahlungen</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>Gesamteinnahmen</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" s="6">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>PeerBerry</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>43345</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2">
         <v>150</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2">
         <v>0.9399999999999999</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2">
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" s="6">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="9" t="n"/>
-      <c r="C3" s="8" t="n">
+    <row r="3" spans="1:7">
+      <c r="C3" s="2">
         <v>43346</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3">
         <v>-818.84</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3">
         <v>60</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3">
         <v>0.3</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3">
         <v>0.3</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" s="6">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="9" t="n"/>
-      <c r="C4" s="8" t="n">
+    <row r="4" spans="1:7">
+      <c r="C4" s="2">
         <v>43347</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4">
         <v>-40</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4">
         <v>0.14</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4">
         <v>0.14</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" s="6">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="8" t="n">
+    <row r="5" spans="1:7">
+      <c r="C5" s="2">
         <v>43348</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5">
         <v>-180.89</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5">
         <v>180</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5">
         <v>1.34</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5">
         <v>1.34</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="6" s="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="9" t="n"/>
-      <c r="C6" s="8" t="n">
+    <row r="6" spans="1:7">
+      <c r="C6" s="2">
         <v>43349</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6">
         <v>-165.81</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6">
         <v>163.79</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6">
         <v>1.47</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6">
         <v>1.47</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7" s="6">
-      <c r="A7" s="9" t="n"/>
-      <c r="B7" s="9" t="n"/>
-      <c r="C7" s="8" t="n">
+    <row r="7" spans="1:7">
+      <c r="C7" s="2">
         <v>43350</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7">
         <v>-60.39</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7">
         <v>60</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7">
         <v>0.39</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7">
         <v>0.39</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8" s="6">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="9" t="n"/>
-      <c r="C8" s="8" t="n">
+    <row r="8" spans="1:7">
+      <c r="C8" s="2">
         <v>43351</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8">
         <v>-170.73</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8">
         <v>170</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8">
         <v>1.23</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8">
         <v>1.23</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9" s="6">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="8" t="n">
+    <row r="9" spans="1:7">
+      <c r="C9" s="2">
         <v>43353</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9">
         <v>-141.57</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9">
         <v>140</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9">
         <v>1.07</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9">
         <v>1.07</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="10" s="6">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="9" t="n"/>
-      <c r="C10" s="8" t="n">
+    <row r="10" spans="1:7">
+      <c r="C10" s="2">
         <v>43354</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10">
         <v>-20.23</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10">
         <v>20</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10">
         <v>0.23</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10">
         <v>0.23</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="11" s="6">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="8" t="n">
+    <row r="11" spans="1:7">
+      <c r="C11" s="2">
         <v>43355</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11">
         <v>-30.64</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11">
         <v>30</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11">
         <v>0.64</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11">
         <v>0.64</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="12" s="6">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="8" t="n">
+    <row r="12" spans="1:7">
+      <c r="C12" s="2">
         <v>43356</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12">
         <v>-179.68</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12">
         <v>178.84</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12">
         <v>0.84</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12">
         <v>0.84</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="13" s="6">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="9" t="n"/>
-      <c r="C13" s="8" t="n">
+    <row r="13" spans="1:7">
+      <c r="C13" s="2">
         <v>43357</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13">
         <v>-91.31999999999999</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13">
         <v>90</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13">
         <v>1.32</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13">
         <v>1.32</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="14" s="6">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="8" t="n">
+    <row r="14" spans="1:7">
+      <c r="C14" s="2">
         <v>43358</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14">
         <v>-30.26</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14">
         <v>30</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14">
         <v>0.33</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14">
         <v>0.33</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="15" s="6">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="8" t="n">
+    <row r="15" spans="1:7">
+      <c r="C15" s="2">
         <v>43359</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15">
         <v>-73.42</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15">
         <v>80</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15">
         <v>0.8100000000000001</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="16" s="6">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="8" t="n">
+    <row r="16" spans="1:7">
+      <c r="C16" s="2">
         <v>43360</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16">
         <v>-55.7</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16">
         <v>47.82</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16">
         <v>0.42</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16">
         <v>0.42</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="17" s="6">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="8" t="n">
+    <row r="17" spans="3:7">
+      <c r="C17" s="2">
         <v>43361</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17">
         <v>-40.96</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17">
         <v>40</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17">
         <v>0.96</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17">
         <v>0.96</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="18" s="6">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="8" t="n">
+    <row r="18" spans="3:7">
+      <c r="C18" s="2">
         <v>43362</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18">
         <v>-40</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18">
         <v>40</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18">
         <v>0.15</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18">
         <v>0.15</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="19" s="6">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="8" t="n">
+    <row r="19" spans="3:7">
+      <c r="C19" s="2">
         <v>43363</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19">
         <v>-40.59</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19">
         <v>40</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19">
         <v>0.44</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19">
         <v>0.44</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="20" s="6">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="9" t="n"/>
-      <c r="C20" s="8" t="n">
+    <row r="20" spans="3:7">
+      <c r="C20" s="2">
         <v>43364</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20">
         <v>-30.44</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20">
         <v>30.3</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20">
         <v>0.14</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20">
         <v>0.14</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="21" s="6">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="9" t="n"/>
-      <c r="C21" s="8" t="n">
+    <row r="21" spans="3:7">
+      <c r="C21" s="2">
         <v>43365</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="22" s="6">
-      <c r="A22" s="9" t="n"/>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="8" t="n">
+    <row r="22" spans="3:7">
+      <c r="C22" s="2">
         <v>43366</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22">
         <v>-40</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22">
         <v>20</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22">
         <v>0.2</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22">
         <v>0.2</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="23" s="6">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="9" t="n"/>
-      <c r="C23" s="8" t="n">
+    <row r="23" spans="3:7">
+      <c r="C23" s="2">
         <v>43368</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23">
         <v>-30.46</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23">
         <v>30</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23">
         <v>0.48</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23">
         <v>0.48</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="24" s="6">
-      <c r="A24" s="9" t="n"/>
-      <c r="B24" s="9" t="n"/>
-      <c r="C24" s="8" t="n">
+    <row r="24" spans="3:7">
+      <c r="C24" s="2">
         <v>43369</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24">
         <v>-91.13</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24">
         <v>90.64</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24">
         <v>0.57</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24">
         <v>0.57</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="25" s="6">
-      <c r="A25" s="9" t="n"/>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="8" t="n">
+    <row r="25" spans="3:7">
+      <c r="C25" s="2">
         <v>43371</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25">
         <v>-70.63</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25">
         <v>70</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25">
         <v>0.65</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25">
         <v>0.65</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="26" s="6">
-      <c r="A26" s="9" t="n"/>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="8" t="n">
+    <row r="26" spans="3:7">
+      <c r="C26" s="2">
         <v>43372</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26">
         <v>-91.13</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26">
         <v>90.15000000000001</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26">
         <v>0.59</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26">
         <v>0.59</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="27" s="6">
-      <c r="A27" s="9" t="n"/>
-      <c r="B27" s="9" t="n"/>
-      <c r="C27" s="8" t="n">
+    <row r="27" spans="3:7">
+      <c r="C27" s="2">
         <v>43373</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27">
         <v>-30.57</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27">
         <v>30.28</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27">
         <v>0.29</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27">
         <v>0.29</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="28" s="6">
-      <c r="A28" s="9" t="n"/>
-      <c r="B28" s="9" t="n"/>
-      <c r="C28" s="8" t="n">
+    <row r="28" spans="3:7">
+      <c r="C28" s="2">
         <v>43405</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28">
         <v>-40</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28">
         <v>20</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28">
         <v>0.15</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28">
         <v>0.15</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="29" s="6">
-      <c r="A29" s="9" t="n"/>
-      <c r="B29" s="9" t="n"/>
-      <c r="C29" s="8" t="n">
+    <row r="29" spans="3:7">
+      <c r="C29" s="2">
         <v>43406</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29">
         <v>-20</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29">
         <v>40</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29">
         <v>0.36</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29">
         <v>0.36</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="30" s="6">
-      <c r="A30" s="9" t="n"/>
-      <c r="B30" s="9" t="n"/>
-      <c r="C30" s="8" t="n">
+    <row r="30" spans="3:7">
+      <c r="C30" s="2">
         <v>43407</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30">
         <v>-192.33</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30">
         <v>176.27</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30">
         <v>1.3</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30">
         <v>1.3</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="31" s="6">
-      <c r="A31" s="9" t="n"/>
-      <c r="B31" s="9" t="n"/>
-      <c r="C31" s="8" t="n">
+    <row r="31" spans="3:7">
+      <c r="C31" s="2">
         <v>43408</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31">
         <v>-38.55</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31">
         <v>30.32</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="32" s="6">
-      <c r="A32" s="9" t="n"/>
-      <c r="B32" s="9" t="n"/>
-      <c r="C32" s="8" t="n">
+    <row r="32" spans="3:7">
+      <c r="C32" s="2">
         <v>43409</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32">
         <v>-100</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32">
         <v>100</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32">
         <v>1.01</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32">
         <v>1.01</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="33" s="6">
-      <c r="A33" s="9" t="n"/>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="8" t="n">
+    <row r="33" spans="3:7">
+      <c r="C33" s="2">
         <v>43410</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33">
         <v>-60</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33">
         <v>60</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33">
         <v>1.47</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33">
         <v>1.47</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="34" s="6">
-      <c r="A34" s="9" t="n"/>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="8" t="n">
+    <row r="34" spans="3:7">
+      <c r="C34" s="2">
         <v>43411</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34">
         <v>-14.27</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34">
         <v>11.71</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34">
         <v>0.08</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34">
         <v>0.08</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="35" s="6">
-      <c r="A35" s="9" t="n"/>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="8" t="n">
+    <row r="35" spans="3:7">
+      <c r="C35" s="2">
         <v>43413</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35">
         <v>-107.68</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35">
         <v>106.85</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35">
         <v>0.83</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35">
         <v>0.83</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="36" s="6">
-      <c r="A36" s="9" t="n"/>
-      <c r="B36" s="9" t="n"/>
-      <c r="C36" s="8" t="n">
+    <row r="36" spans="3:7">
+      <c r="C36" s="2">
         <v>43414</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36">
         <v>-244.82</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36">
         <v>242.24</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36">
         <v>2.82</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36">
         <v>2.82</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="37" s="6">
-      <c r="A37" s="9" t="n"/>
-      <c r="B37" s="9" t="n"/>
-      <c r="C37" s="8" t="n">
+    <row r="37" spans="3:7">
+      <c r="C37" s="2">
         <v>43415</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37">
         <v>-131.94</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37">
         <v>130.76</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37">
         <v>1.09</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37">
         <v>1.09</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="38" s="6">
-      <c r="A38" s="9" t="n"/>
-      <c r="B38" s="9" t="n"/>
-      <c r="C38" s="8" t="n">
+    <row r="38" spans="3:7">
+      <c r="C38" s="2">
         <v>43416</v>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="D38">
         <v>-40</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38">
         <v>48.92</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38">
         <v>0.37</v>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="G38">
         <v>0.37</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="39" s="6">
-      <c r="A39" s="9" t="n"/>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="8" t="n">
+    <row r="39" spans="3:7">
+      <c r="C39" s="2">
         <v>43417</v>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="D39">
         <v>-81.91</v>
       </c>
-      <c r="E39" s="5" t="n">
+      <c r="E39">
         <v>71.23</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39">
         <v>1.24</v>
       </c>
-      <c r="G39" s="5" t="n">
+      <c r="G39">
         <v>1.24</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="40" s="6">
-      <c r="A40" s="9" t="n"/>
-      <c r="B40" s="9" t="n"/>
-      <c r="C40" s="8" t="n">
+    <row r="40" spans="3:7">
+      <c r="C40" s="2">
         <v>43418</v>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="D40">
         <v>-20</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40">
         <v>20</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40">
         <v>0.12</v>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="G40">
         <v>0.12</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="41" s="6">
-      <c r="A41" s="9" t="n"/>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="8" t="n">
+    <row r="41" spans="3:7">
+      <c r="C41" s="2">
         <v>43419</v>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="D41">
         <v>-36.63</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41">
         <v>36.28</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41">
         <v>0.23</v>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="G41">
         <v>0.23</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="42" s="6">
-      <c r="A42" s="9" t="n"/>
-      <c r="B42" s="9" t="n"/>
-      <c r="C42" s="8" t="n">
+    <row r="42" spans="3:7">
+      <c r="C42" s="2">
         <v>43420</v>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="D42">
         <v>-71.22</v>
       </c>
-      <c r="E42" s="5" t="n">
+      <c r="E42">
         <v>70.63</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42">
         <v>0.59</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="G42">
         <v>0.59</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="43" s="6">
-      <c r="A43" s="9" t="n"/>
-      <c r="B43" s="9" t="n"/>
-      <c r="C43" s="8" t="n">
+    <row r="43" spans="3:7">
+      <c r="C43" s="2">
         <v>43421</v>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="D43">
         <v>-90.39</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43">
         <v>89.53</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43">
         <v>0.86</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43">
         <v>0.86</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="44" s="6">
-      <c r="A44" s="9" t="n"/>
-      <c r="B44" s="9" t="n"/>
-      <c r="C44" s="8" t="n">
+    <row r="44" spans="3:7">
+      <c r="C44" s="2">
         <v>43422</v>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="D44">
         <v>-39.16</v>
       </c>
-      <c r="E44" s="5" t="n">
+      <c r="E44">
         <v>38.99</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44">
         <v>0.29</v>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="G44">
         <v>0.29</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="45" s="6">
-      <c r="A45" s="9" t="n"/>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="8" t="n">
+    <row r="45" spans="3:7">
+      <c r="C45" s="2">
         <v>43423</v>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="D45">
         <v>-92.43000000000001</v>
       </c>
-      <c r="E45" s="5" t="n">
+      <c r="E45">
         <v>91.94</v>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45">
         <v>0.66</v>
       </c>
-      <c r="G45" s="5" t="n">
+      <c r="G45">
         <v>0.66</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="46" s="6">
-      <c r="A46" s="9" t="n"/>
-      <c r="B46" s="9" t="n"/>
-      <c r="C46" s="8" t="n">
+    <row r="46" spans="3:7">
+      <c r="C46" s="2">
         <v>43425</v>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="D46">
         <v>-20</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46">
         <v>20</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46">
         <v>0.05</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46">
         <v>0.05</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="47" s="6">
-      <c r="A47" s="9" t="n"/>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="8" t="n">
+    <row r="47" spans="3:7">
+      <c r="C47" s="2">
         <v>43426</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47">
         <v>-165.22</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47">
         <v>164.11</v>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47">
         <v>0.98</v>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="G47">
         <v>0.98</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="48" s="6">
-      <c r="A48" s="9" t="n"/>
-      <c r="B48" s="9" t="n"/>
-      <c r="C48" s="8" t="n">
+    <row r="48" spans="3:7">
+      <c r="C48" s="2">
         <v>43427</v>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="D48">
         <v>-91.84</v>
       </c>
-      <c r="E48" s="5" t="n">
+      <c r="E48">
         <v>91.25</v>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48">
         <v>0.38</v>
       </c>
-      <c r="G48" s="5" t="n">
+      <c r="G48">
         <v>0.38</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="49" s="6">
-      <c r="A49" s="9" t="n"/>
-      <c r="B49" s="9" t="n"/>
-      <c r="C49" s="8" t="n">
+    <row r="49" spans="3:7">
+      <c r="C49" s="2">
         <v>43428</v>
       </c>
-      <c r="D49" s="5" t="n">
+      <c r="D49">
         <v>-40</v>
       </c>
-      <c r="E49" s="5" t="n">
+      <c r="E49">
         <v>40</v>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49">
         <v>0.55</v>
       </c>
-      <c r="G49" s="5" t="n">
+      <c r="G49">
         <v>0.55</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="50" s="6">
-      <c r="A50" s="9" t="n"/>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="8" t="n">
+    <row r="50" spans="3:7">
+      <c r="C50" s="2">
         <v>43429</v>
       </c>
-      <c r="D50" s="5" t="n">
+      <c r="D50">
         <v>-40</v>
       </c>
-      <c r="E50" s="5" t="n">
+      <c r="E50">
         <v>40</v>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50">
         <v>0.57</v>
       </c>
-      <c r="G50" s="5" t="n">
+      <c r="G50">
         <v>0.57</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="51" s="6">
-      <c r="A51" s="9" t="n"/>
-      <c r="B51" s="9" t="n"/>
-      <c r="C51" s="8" t="n">
+    <row r="51" spans="3:7">
+      <c r="C51" s="2">
         <v>43430</v>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="D51">
         <v>-40</v>
       </c>
-      <c r="E51" s="5" t="n">
+      <c r="E51">
         <v>40</v>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51">
         <v>0.25</v>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="G51">
         <v>0.25</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="52" s="6">
-      <c r="A52" s="9" t="n"/>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="8" t="n">
+    <row r="52" spans="3:7">
+      <c r="C52" s="2">
         <v>43431</v>
       </c>
-      <c r="D52" s="5" t="n">
+      <c r="D52">
         <v>-60</v>
       </c>
-      <c r="E52" s="5" t="n">
+      <c r="E52">
         <v>60</v>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52">
         <v>0.45</v>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="G52">
         <v>0.45</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="53" s="6">
-      <c r="A53" s="9" t="n"/>
-      <c r="B53" s="9" t="n"/>
-      <c r="C53" s="8" t="n">
+    <row r="53" spans="3:7">
+      <c r="C53" s="2">
         <v>43432</v>
       </c>
-      <c r="D53" s="5" t="n">
+      <c r="D53">
         <v>-115.62</v>
       </c>
-      <c r="E53" s="5" t="n">
+      <c r="E53">
         <v>113.19</v>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53">
         <v>1.4</v>
       </c>
-      <c r="G53" s="5" t="n">
+      <c r="G53">
         <v>1.4</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="54" s="6">
-      <c r="A54" s="9" t="n"/>
-      <c r="B54" s="9" t="n"/>
-      <c r="C54" s="8" t="n">
+    <row r="54" spans="3:7">
+      <c r="C54" s="2">
         <v>43433</v>
       </c>
-      <c r="D54" s="5" t="n">
+      <c r="D54">
         <v>-100</v>
       </c>
-      <c r="E54" s="5" t="n">
+      <c r="E54">
         <v>98.83</v>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54">
         <v>0.38</v>
       </c>
-      <c r="G54" s="5" t="n">
+      <c r="G54">
         <v>0.38</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="55" s="6">
-      <c r="A55" s="9" t="n"/>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="8" t="n">
+    <row r="55" spans="3:7">
+      <c r="C55" s="2">
         <v>43434</v>
       </c>
-      <c r="D55" s="5" t="n">
+      <c r="D55">
         <v>-108.75</v>
       </c>
-      <c r="E55" s="5" t="n">
+      <c r="E55">
         <v>108.03</v>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55">
         <v>0.72</v>
       </c>
-      <c r="G55" s="5" t="n">
+      <c r="G55">
         <v>0.72</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="56" s="6">
-      <c r="A56" s="9" t="n"/>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="8" t="n">
+    <row r="56" spans="3:7">
+      <c r="C56" s="2">
         <v>43435</v>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="D56">
         <v>-80</v>
       </c>
-      <c r="E56" s="5" t="n">
+      <c r="E56">
         <v>80</v>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56">
         <v>1.88</v>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="G56">
         <v>1.88</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="57" s="6">
-      <c r="A57" s="9" t="n"/>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="8" t="n">
+    <row r="57" spans="3:7">
+      <c r="C57" s="2">
         <v>43436</v>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="D57">
         <v>-20</v>
       </c>
-      <c r="E57" s="5" t="n">
+      <c r="E57">
         <v>20</v>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57">
         <v>0.13</v>
       </c>
-      <c r="G57" s="5" t="n">
+      <c r="G57">
         <v>0.13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="58" s="6">
-      <c r="A58" s="9" t="n"/>
-      <c r="B58" s="9" t="n"/>
-      <c r="C58" s="8" t="n">
+    <row r="58" spans="3:7">
+      <c r="C58" s="2">
         <v>43437</v>
       </c>
-      <c r="D58" s="5" t="n">
+      <c r="D58">
         <v>-20</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58">
         <v>20</v>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58">
         <v>0.22</v>
       </c>
-      <c r="G58" s="5" t="n">
+      <c r="G58">
         <v>0.22</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="59" s="6">
-      <c r="A59" s="9" t="n"/>
-      <c r="B59" s="9" t="n"/>
-      <c r="C59" s="8" t="n">
+    <row r="59" spans="3:7">
+      <c r="C59" s="2">
         <v>43438</v>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="D59">
         <v>-100</v>
       </c>
-      <c r="E59" s="5" t="n">
+      <c r="E59">
         <v>100</v>
       </c>
-      <c r="F59" s="5" t="n">
+      <c r="F59">
         <v>0.96</v>
       </c>
-      <c r="G59" s="5" t="n">
+      <c r="G59">
         <v>0.96</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="60" s="6">
-      <c r="A60" s="9" t="n"/>
-      <c r="B60" s="9" t="n"/>
-      <c r="C60" s="8" t="n">
+    <row r="60" spans="3:7">
+      <c r="C60" s="2">
         <v>43439</v>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="D60">
         <v>-12.28</v>
       </c>
-      <c r="E60" s="5" t="n">
+      <c r="E60">
         <v>10.08</v>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60">
         <v>0.26</v>
       </c>
-      <c r="G60" s="5" t="n">
+      <c r="G60">
         <v>0.26</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="61" s="6">
-      <c r="A61" s="9" t="n"/>
-      <c r="B61" s="9" t="n"/>
-      <c r="C61" s="8" t="n">
+    <row r="61" spans="3:7">
+      <c r="C61" s="2">
         <v>43440</v>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="D61">
         <v>-32.18</v>
       </c>
-      <c r="E61" s="5" t="n">
+      <c r="E61">
         <v>31.94</v>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61">
         <v>0.24</v>
       </c>
-      <c r="G61" s="5" t="n">
+      <c r="G61">
         <v>0.24</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="62" s="6">
-      <c r="A62" s="9" t="n"/>
-      <c r="B62" s="9" t="n"/>
-      <c r="C62" s="8" t="n">
+    <row r="62" spans="3:7">
+      <c r="C62" s="2">
         <v>43441</v>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="D62">
         <v>-175.77</v>
       </c>
-      <c r="E62" s="5" t="n">
+      <c r="E62">
         <v>178.55</v>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62">
         <v>1.28</v>
       </c>
-      <c r="G62" s="5" t="n">
+      <c r="G62">
         <v>1.28</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="63" s="6">
-      <c r="A63" s="9" t="n"/>
-      <c r="B63" s="9" t="n"/>
-      <c r="C63" s="8" t="n">
+    <row r="63" spans="3:7">
+      <c r="C63" s="2">
         <v>43442</v>
       </c>
-      <c r="D63" s="5" t="n">
+      <c r="D63">
         <v>-140</v>
       </c>
-      <c r="E63" s="5" t="n">
+      <c r="E63">
         <v>137.91</v>
       </c>
-      <c r="F63" s="5" t="n">
+      <c r="F63">
         <v>1.44</v>
       </c>
-      <c r="G63" s="5" t="n">
+      <c r="G63">
         <v>1.44</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="64" s="6">
-      <c r="A64" s="9" t="n"/>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="8" t="n">
+    <row r="64" spans="3:7">
+      <c r="C64" s="2">
         <v>43443</v>
       </c>
-      <c r="D64" s="5" t="n">
+      <c r="D64">
         <v>-36.09</v>
       </c>
-      <c r="E64" s="5" t="n">
+      <c r="E64">
         <v>31.21</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64">
         <v>0.22</v>
       </c>
-      <c r="G64" s="5" t="n">
+      <c r="G64">
         <v>0.22</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="65" s="6">
-      <c r="A65" s="9" t="n"/>
-      <c r="B65" s="9" t="n"/>
-      <c r="C65" s="8" t="n">
+    <row r="65" spans="3:7">
+      <c r="C65" s="2">
         <v>43444</v>
       </c>
-      <c r="D65" s="5" t="n">
+      <c r="D65">
         <v>-30.85</v>
       </c>
-      <c r="E65" s="5" t="n">
+      <c r="E65">
         <v>30.69</v>
       </c>
-      <c r="F65" s="5" t="n">
+      <c r="F65">
         <v>0.16</v>
       </c>
-      <c r="G65" s="5" t="n">
+      <c r="G65">
         <v>0.16</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="66" s="6">
-      <c r="A66" s="9" t="n"/>
-      <c r="B66" s="9" t="n"/>
-      <c r="C66" s="8" t="n">
+    <row r="66" spans="3:7">
+      <c r="C66" s="2">
         <v>43445</v>
       </c>
-      <c r="D66" s="5" t="n">
+      <c r="D66">
         <v>-60</v>
       </c>
-      <c r="E66" s="5" t="n">
+      <c r="E66">
         <v>60</v>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66">
         <v>0.42</v>
       </c>
-      <c r="G66" s="5" t="n">
+      <c r="G66">
         <v>0.42</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="67" s="6">
-      <c r="A67" s="9" t="n"/>
-      <c r="B67" s="9" t="n"/>
-      <c r="C67" s="8" t="n">
+    <row r="67" spans="3:7">
+      <c r="C67" s="2">
         <v>43446</v>
       </c>
-      <c r="D67" s="5" t="n">
+      <c r="D67">
         <v>-67.56999999999999</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67">
         <v>66.7</v>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67">
         <v>1.11</v>
       </c>
-      <c r="G67" s="5" t="n">
+      <c r="G67">
         <v>1.11</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="68" s="6">
-      <c r="A68" s="9" t="n"/>
-      <c r="B68" s="9" t="n"/>
-      <c r="C68" s="8" t="n">
+    <row r="68" spans="3:7">
+      <c r="C68" s="2">
         <v>43447</v>
       </c>
-      <c r="D68" s="5" t="n">
+      <c r="D68">
         <v>-141.92</v>
       </c>
-      <c r="E68" s="5" t="n">
+      <c r="E68">
         <v>139.76</v>
       </c>
-      <c r="F68" s="5" t="n">
+      <c r="F68">
         <v>1.5</v>
       </c>
-      <c r="G68" s="5" t="n">
+      <c r="G68">
         <v>1.5</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="69" s="6">
-      <c r="A69" s="9" t="n"/>
-      <c r="B69" s="9" t="n"/>
-      <c r="C69" s="8" t="n">
+    <row r="69" spans="3:7">
+      <c r="C69" s="2">
         <v>43448</v>
       </c>
-      <c r="D69" s="5" t="n">
+      <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" s="5" t="n">
+      <c r="E69">
         <v>20</v>
       </c>
-      <c r="F69" s="5" t="n">
+      <c r="F69">
         <v>0.04</v>
       </c>
-      <c r="G69" s="5" t="n">
+      <c r="G69">
         <v>0.04</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="70" s="6">
-      <c r="A70" s="9" t="n"/>
-      <c r="B70" s="9" t="n"/>
-      <c r="C70" s="8" t="n">
+    <row r="70" spans="3:7">
+      <c r="C70" s="2">
         <v>43449</v>
       </c>
-      <c r="D70" s="5" t="n">
+      <c r="D70">
         <v>-256.26</v>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E70">
         <v>238.66</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70">
         <v>2.58</v>
       </c>
-      <c r="G70" s="5" t="n">
+      <c r="G70">
         <v>2.58</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="71" s="6">
-      <c r="A71" s="9" t="n"/>
-      <c r="B71" s="9" t="n"/>
-      <c r="C71" s="8" t="n">
+    <row r="71" spans="3:7">
+      <c r="C71" s="2">
         <v>43450</v>
       </c>
-      <c r="D71" s="5" t="n">
+      <c r="D71">
         <v>-20</v>
       </c>
-      <c r="E71" s="5" t="n">
+      <c r="E71">
         <v>20</v>
       </c>
-      <c r="F71" s="5" t="n">
+      <c r="F71">
         <v>0.11</v>
       </c>
-      <c r="G71" s="5" t="n">
+      <c r="G71">
         <v>0.11</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="72" s="6">
-      <c r="A72" s="9" t="n"/>
-      <c r="B72" s="9" t="n"/>
-      <c r="C72" s="8" t="n">
+    <row r="72" spans="3:7">
+      <c r="C72" s="2">
         <v>43452</v>
       </c>
-      <c r="D72" s="5" t="n">
+      <c r="D72">
         <v>-40</v>
       </c>
-      <c r="E72" s="5" t="n">
+      <c r="E72">
         <v>40</v>
       </c>
-      <c r="F72" s="5" t="n">
+      <c r="F72">
         <v>0.28</v>
       </c>
-      <c r="G72" s="5" t="n">
+      <c r="G72">
         <v>0.28</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="73" s="6">
-      <c r="A73" s="9" t="n"/>
-      <c r="B73" s="9" t="n"/>
-      <c r="C73" s="8" t="n">
+    <row r="73" spans="3:7">
+      <c r="C73" s="2">
         <v>43453</v>
       </c>
-      <c r="D73" s="5" t="n">
+      <c r="D73">
         <v>-20</v>
       </c>
-      <c r="E73" s="5" t="n">
+      <c r="E73">
         <v>19.88</v>
       </c>
-      <c r="F73" s="5" t="n">
+      <c r="F73">
         <v>0.42</v>
       </c>
-      <c r="G73" s="5" t="n">
+      <c r="G73">
         <v>0.42</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="74" s="6">
-      <c r="A74" s="9" t="n"/>
-      <c r="B74" s="9" t="n"/>
-      <c r="C74" s="8" t="n">
+    <row r="74" spans="3:7">
+      <c r="C74" s="2">
         <v>43454</v>
       </c>
-      <c r="D74" s="5" t="n">
+      <c r="D74">
         <v>-40</v>
       </c>
-      <c r="E74" s="5" t="n">
+      <c r="E74">
         <v>89.98999999999999</v>
       </c>
-      <c r="F74" s="5" t="n">
+      <c r="F74">
         <v>0.44</v>
       </c>
-      <c r="G74" s="5" t="n">
+      <c r="G74">
         <v>0.44</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="75" s="6">
-      <c r="A75" s="9" t="n"/>
-      <c r="B75" s="9" t="n"/>
-      <c r="C75" s="8" t="n">
+    <row r="75" spans="3:7">
+      <c r="C75" s="2">
         <v>43455</v>
       </c>
-      <c r="D75" s="5" t="n">
+      <c r="D75">
         <v>-176.14</v>
       </c>
-      <c r="E75" s="5" t="n">
+      <c r="E75">
         <v>120</v>
       </c>
-      <c r="F75" s="5" t="n">
+      <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75" s="5" t="n">
+      <c r="G75">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="76" s="6">
-      <c r="A76" s="9" t="n"/>
-      <c r="B76" s="9" t="n"/>
-      <c r="C76" s="8" t="n">
+    <row r="76" spans="3:7">
+      <c r="C76" s="2">
         <v>43456</v>
       </c>
-      <c r="D76" s="5" t="n">
+      <c r="D76">
         <v>-94.90000000000001</v>
       </c>
-      <c r="E76" s="5" t="n">
+      <c r="E76">
         <v>100</v>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76">
         <v>0.76</v>
       </c>
-      <c r="G76" s="5" t="n">
+      <c r="G76">
         <v>0.76</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="77" s="6">
-      <c r="A77" s="9" t="n"/>
-      <c r="B77" s="9" t="n"/>
-      <c r="C77" s="8" t="n">
+    <row r="77" spans="3:7">
+      <c r="C77" s="2">
         <v>43457</v>
       </c>
-      <c r="D77" s="5" t="n">
+      <c r="D77">
         <v>-140</v>
       </c>
-      <c r="E77" s="5" t="n">
+      <c r="E77">
         <v>154.61</v>
       </c>
-      <c r="F77" s="5" t="n">
+      <c r="F77">
         <v>1.47</v>
       </c>
-      <c r="G77" s="5" t="n">
+      <c r="G77">
         <v>1.47</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="78" s="6">
-      <c r="A78" s="9" t="n"/>
-      <c r="B78" s="9" t="n"/>
-      <c r="C78" s="8" t="n">
+    <row r="78" spans="3:7">
+      <c r="C78" s="2">
         <v>43458</v>
       </c>
-      <c r="D78" s="5" t="n">
+      <c r="D78">
         <v>-80</v>
       </c>
-      <c r="E78" s="5" t="n">
+      <c r="E78">
         <v>60</v>
       </c>
-      <c r="F78" s="5" t="n">
+      <c r="F78">
         <v>0.6899999999999999</v>
       </c>
-      <c r="G78" s="5" t="n">
+      <c r="G78">
         <v>0.6899999999999999</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="79" s="6">
-      <c r="A79" s="9" t="n"/>
-      <c r="B79" s="9" t="n"/>
-      <c r="C79" s="8" t="n">
+    <row r="79" spans="3:7">
+      <c r="C79" s="2">
         <v>43459</v>
       </c>
-      <c r="D79" s="5" t="n">
+      <c r="D79">
         <v>-60</v>
       </c>
-      <c r="E79" s="5" t="n">
+      <c r="E79">
         <v>60</v>
       </c>
-      <c r="F79" s="5" t="n">
+      <c r="F79">
         <v>0.47</v>
       </c>
-      <c r="G79" s="5" t="n">
+      <c r="G79">
         <v>0.47</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="80" s="6">
-      <c r="A80" s="9" t="n"/>
-      <c r="B80" s="9" t="n"/>
-      <c r="C80" s="8" t="n">
+    <row r="80" spans="3:7">
+      <c r="C80" s="2">
         <v>43460</v>
       </c>
-      <c r="D80" s="5" t="n">
+      <c r="D80">
         <v>-40</v>
       </c>
-      <c r="E80" s="5" t="n">
+      <c r="E80">
         <v>40</v>
       </c>
-      <c r="F80" s="5" t="n">
+      <c r="F80">
         <v>0.24</v>
       </c>
-      <c r="G80" s="5" t="n">
+      <c r="G80">
         <v>0.24</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="81" s="6">
-      <c r="A81" s="9" t="n"/>
-      <c r="B81" s="9" t="n"/>
-      <c r="C81" s="8" t="n">
+    <row r="81" spans="3:7">
+      <c r="C81" s="2">
         <v>43461</v>
       </c>
-      <c r="D81" s="5" t="n">
+      <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81" s="5" t="n">
+      <c r="E81">
         <v>40</v>
       </c>
-      <c r="F81" s="5" t="n">
+      <c r="F81">
         <v>0.32</v>
       </c>
-      <c r="G81" s="5" t="n">
+      <c r="G81">
         <v>0.32</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="82" s="6">
-      <c r="A82" s="9" t="n"/>
-      <c r="B82" s="9" t="n"/>
-      <c r="C82" s="8" t="n">
+    <row r="82" spans="3:7">
+      <c r="C82" s="2">
         <v>43462</v>
       </c>
-      <c r="D82" s="5" t="n">
+      <c r="D82">
         <v>-56.03</v>
       </c>
-      <c r="E82" s="5" t="n">
+      <c r="E82">
         <v>11.27</v>
       </c>
-      <c r="F82" s="5" t="n">
+      <c r="F82">
         <v>0.1</v>
       </c>
-      <c r="G82" s="5" t="n">
+      <c r="G82">
         <v>0.1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="83" s="6">
-      <c r="A83" s="10" t="n"/>
-      <c r="B83" s="10" t="n"/>
-      <c r="C83" s="8" t="n">
+    <row r="83" spans="3:7">
+      <c r="C83" s="2">
         <v>43464</v>
       </c>
-      <c r="D83" s="5" t="n">
+      <c r="D83">
         <v>-32.53</v>
       </c>
-      <c r="E83" s="5" t="n">
+      <c r="E83">
         <v>32.28</v>
       </c>
-      <c r="F83" s="5" t="n">
+      <c r="F83">
         <v>0.25</v>
       </c>
-      <c r="G83" s="5" t="n">
+      <c r="G83">
         <v>0.25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A83"/>
-    <mergeCell ref="B2:B83"/>
-  </mergeCells>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H2" activeCellId="0" pane="topLeft" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="11.57"/>
-    <col customWidth="1" max="3" min="2" style="4" width="9.130000000000001"/>
-    <col customWidth="1" max="4" min="4" style="5" width="16.29"/>
-    <col customWidth="1" max="5" min="5" style="5" width="21.14"/>
-    <col customWidth="1" max="6" min="6" style="5" width="16.29"/>
-    <col customWidth="1" max="7" min="7" style="5" width="18.71"/>
-    <col customWidth="1" max="1025" min="8" style="4" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Plattform</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>Währung</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>Monat</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Investitionen</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>Tilgungszahlungen</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Zinszahlungen</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>Gesamteinnahmen</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="6">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>PeerBerry</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>2018-08</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="3" s="6">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="9" t="n"/>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>2018-09</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>-2565.39</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3">
         <v>1931.82</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3">
         <v>16.01</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3">
         <v>16.01</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="6">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="9" t="n"/>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>2018-10</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="n">
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="6">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>2018-11</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="n">
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>-2202.76</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5">
         <v>2161.08</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5">
         <v>19.76</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5">
         <v>19.76</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="9" t="n"/>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>2018-12</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="n">
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>-1972.52</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6">
         <v>1953.53</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6">
         <v>18.99</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6">
         <v>18.99</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="6">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n">
+    <row r="7" spans="1:7">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-  </mergeCells>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="11.57"/>
-    <col customWidth="1" max="2" min="2" style="4" width="9.130000000000001"/>
-    <col customWidth="1" max="3" min="3" style="5" width="16.29"/>
-    <col customWidth="1" max="4" min="4" style="5" width="21.14"/>
-    <col customWidth="1" max="5" min="5" style="5" width="16.29"/>
-    <col customWidth="1" max="6" min="6" style="5" width="18.71"/>
-    <col customWidth="1" max="1025" min="7" style="4" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Plattform</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>Währung</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>Investitionen</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Tilgungszahlungen</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>Zinszahlungen</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Gesamteinnahmen</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" s="6">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>PeerBerry</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>-6740.67</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2">
         <v>6046.43</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2">
         <v>54.76</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2">
         <v>54.76</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" s="6">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="n"/>
-      <c r="C3" s="5" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>-6740.67</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3">
         <v>6046.43</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3">
         <v>54.76</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3">
         <v>54.76</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>